--- a/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Germany\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246CFE2C-418C-4478-9D68-7A871F20B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -17,16 +18,20 @@
     <sheet name="5₰" sheetId="26" r:id="rId3"/>
     <sheet name="10₰" sheetId="27" r:id="rId4"/>
     <sheet name="50₰" sheetId="28" r:id="rId5"/>
-    <sheet name="1ℳ" sheetId="29" r:id="rId6"/>
-    <sheet name="2ℳ" sheetId="30" r:id="rId7"/>
-    <sheet name="5ℳ" sheetId="31" r:id="rId8"/>
+    <sheet name="1ℛℳ" sheetId="29" r:id="rId6"/>
+    <sheet name="2ℛℳ" sheetId="30" r:id="rId7"/>
+    <sheet name="5ℛℳ" sheetId="31" r:id="rId8"/>
     <sheet name="Links" sheetId="21" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,13 +39,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -86,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -102,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -118,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -165,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -244,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -265,13 +270,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -286,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -301,7 +306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -317,7 +322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -365,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -381,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -396,7 +401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -443,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -496,13 +501,13 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -532,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -548,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -580,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -596,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -612,7 +617,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -627,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -642,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -658,7 +663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -674,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -690,7 +695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -706,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -727,13 +732,13 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -748,7 +753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -763,7 +768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -779,7 +784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -795,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -811,7 +816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -827,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -843,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -858,7 +863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -873,7 +878,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -889,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -905,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +926,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -937,7 +942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -958,13 +963,13 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -979,7 +984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -994,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1010,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1026,7 +1031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1047,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1058,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1079,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1089,7 +1094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1104,7 +1109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1136,7 +1141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1168,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1189,13 +1194,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1241,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1257,7 +1262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1273,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1320,7 +1325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1335,7 +1340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1351,7 +1356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1367,7 +1372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1383,7 +1388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1399,7 +1404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1420,13 +1425,13 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1441,7 +1446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1456,7 +1461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1472,7 +1477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1488,7 +1493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1504,7 +1509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1520,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1536,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1566,7 +1571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1582,7 +1587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1598,7 +1603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1614,7 +1619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1630,7 +1635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1651,13 +1656,13 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
     <author>Илюшин Алексей</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1672,7 +1677,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1687,7 +1692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1703,7 +1708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="1" shapeId="0">
+    <comment ref="H2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1719,7 +1724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1735,7 +1740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1751,7 +1756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1767,7 +1772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1782,7 +1787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1797,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1813,7 +1818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1829,7 +1834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1845,7 +1850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1986,9 +1991,6 @@
     <t xml:space="preserve">7.200.000 </t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -3091,12 +3093,15 @@
   </si>
   <si>
     <t>19.579.000</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3426,7 +3431,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="170">
+  <dxfs count="171">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3435,6 +3440,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -4795,16 +4808,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица4" displayName="Таблица4" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="2"/>
-    <tableColumn id="2" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5106,39 +5119,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -5156,26 +5169,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -5190,13 +5203,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -5208,19 +5221,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1936</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>0</v>
@@ -5232,13 +5245,13 @@
         <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="20">
         <v>0</v>
@@ -5266,37 +5279,37 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1937</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -5324,37 +5337,37 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1938</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -5382,37 +5395,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1939</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -5440,19 +5453,19 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1940</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
@@ -5464,13 +5477,13 @@
         <v>0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -5498,37 +5511,37 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1940</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -5556,37 +5569,37 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1941</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -5614,37 +5627,37 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1942</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -5672,37 +5685,37 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1943</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="20">
         <v>0</v>
@@ -5730,34 +5743,34 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1944</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>0</v>
@@ -5788,19 +5801,19 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1945</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>0</v>
@@ -5809,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="13" t="s">
         <v>0</v>
@@ -5846,15 +5859,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1945</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="13" t="s">
@@ -5870,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>0</v>
@@ -5904,15 +5917,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1946</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="13" t="s">
@@ -5928,10 +5941,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="J15" s="11" t="s">
         <v>393</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>394</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>0</v>
@@ -5983,16 +5996,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N6 N9:N12 P3:R7 P9:R11 P12:Q12">
-    <cfRule type="containsText" dxfId="169" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3">
-    <cfRule type="containsText" dxfId="168" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O6 O9 O11">
+  <conditionalFormatting sqref="O6 O4 O9 O11">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6005,7 +6018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="167" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6022,7 +6035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="containsText" dxfId="166" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6050,7 +6063,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L3 L7 L10 L12">
+  <conditionalFormatting sqref="L3 L5 L7 L10 L12">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6063,11 +6076,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 O6 O9 O11">
-    <cfRule type="containsText" dxfId="165" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4 L9 L11">
+  <conditionalFormatting sqref="L4 L6 L9 L11">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6079,20 +6092,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O5 O3 O10 O12">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O3 O5 O10 O12">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3 O5 O10 O12">
-    <cfRule type="containsText" dxfId="164" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6109,7 +6122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 L5 L7 L10 L12">
-    <cfRule type="containsText" dxfId="163" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6126,7 +6139,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L9 L11">
-    <cfRule type="containsText" dxfId="162" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6143,17 +6156,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8 P8:R8">
-    <cfRule type="containsText" dxfId="161" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="containsText" dxfId="160" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="159" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6170,12 +6183,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="containsText" dxfId="158" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M4 M7">
-    <cfRule type="containsText" dxfId="157" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6204,7 +6217,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="156" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6221,7 +6234,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" dxfId="155" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6238,7 +6251,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M12">
-    <cfRule type="containsText" dxfId="154" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6255,7 +6268,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="containsText" dxfId="153" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6284,7 +6297,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="152" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6301,12 +6314,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="containsText" dxfId="151" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="containsText" dxfId="150" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6323,7 +6336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="149" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6340,12 +6353,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="containsText" dxfId="148" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="147" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6362,7 +6375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:O15 Q14:R14 R15">
-    <cfRule type="containsText" dxfId="146" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6391,7 +6404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14">
-    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6408,7 +6421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6425,7 +6438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q15">
-    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6436,39 +6449,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -6486,26 +6499,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -6520,13 +6533,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -6538,15 +6551,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1936</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
@@ -6556,13 +6569,13 @@
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="13" t="s">
         <v>0</v>
@@ -6596,37 +6609,37 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1937</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -6654,37 +6667,37 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1938</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -6712,37 +6725,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1939</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -6770,37 +6783,37 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1940</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -6849,11 +6862,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 P4:R6 Q7:R7 P3">
-    <cfRule type="containsText" dxfId="142" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O4">
+  <conditionalFormatting sqref="O4 O6">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6865,7 +6878,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L3 L7">
+  <conditionalFormatting sqref="L3 L5 L7">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6878,11 +6891,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 O6">
-    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4">
+  <conditionalFormatting sqref="L4 L6">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6894,7 +6907,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O5">
+  <conditionalFormatting sqref="O5 O7">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6907,21 +6920,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5 O7">
-    <cfRule type="containsText" dxfId="140" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 L5 L7">
-    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6">
-    <cfRule type="containsText" dxfId="138" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5 N3 N7">
+  <conditionalFormatting sqref="N3 N5 N7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6934,12 +6947,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3 N5 N7">
-    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="containsText" dxfId="136" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6956,7 +6969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="containsText" dxfId="135" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P7))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6973,7 +6986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3">
-    <cfRule type="containsText" dxfId="134" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6990,7 +7003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7019,7 +7032,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M4 M7">
-    <cfRule type="containsText" dxfId="132" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7036,7 +7049,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5">
-    <cfRule type="containsText" dxfId="131" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7053,7 +7066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6">
-    <cfRule type="containsText" dxfId="130" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7064,39 +7077,39 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -7114,26 +7127,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -7148,13 +7161,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -7166,25 +7179,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1936</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>0</v>
@@ -7193,7 +7206,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>0</v>
@@ -7224,37 +7237,37 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1937</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -7282,37 +7295,37 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1938</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -7340,37 +7353,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1939</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -7398,37 +7411,37 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1940</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L7" s="20">
         <v>1</v>
@@ -7456,39 +7469,39 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1940</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="E8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>388</v>
-      </c>
       <c r="I8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -7516,37 +7529,37 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1941</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -7574,21 +7587,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1941</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>386</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>0</v>
@@ -7600,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>0</v>
@@ -7634,34 +7647,34 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1942</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K11" s="13" t="s">
         <v>0</v>
@@ -7692,34 +7705,34 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1943</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>0</v>
@@ -7750,34 +7763,34 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1944</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>0</v>
@@ -7808,7 +7821,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1945</v>
       </c>
@@ -7868,7 +7881,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1946</v>
       </c>
@@ -7928,25 +7941,25 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1947</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>0</v>
@@ -7986,19 +7999,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1948</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>0</v>
@@ -8007,7 +8020,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>0</v>
@@ -8052,7 +8065,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6 N4 N11 N13 P4:R7 Q3 P11:Q13 P9:R9">
+  <conditionalFormatting sqref="N4 N6 N11 N13 P4:R7 Q3 P11:Q13 P9:R9">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8065,11 +8078,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N11 N13 P4:R7 Q3 P11:Q13 P9:R9">
-    <cfRule type="containsText" dxfId="129" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O4 O11 O13">
+  <conditionalFormatting sqref="O4 O6 O11 O13">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8081,7 +8094,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L3 L7 L12 L9">
+  <conditionalFormatting sqref="L3 L5 L7 L12 L9">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8094,11 +8107,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 O6 O11 O13">
-    <cfRule type="containsText" dxfId="128" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4 L11 L13">
+  <conditionalFormatting sqref="L4 L6 L11 L13">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8110,7 +8123,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O5 O12 O9">
+  <conditionalFormatting sqref="O5 O7 O12 O9">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8123,21 +8136,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5 O7 O12 O9">
-    <cfRule type="containsText" dxfId="127" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 L5 L7 L12 L9">
-    <cfRule type="containsText" dxfId="126" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L11 L13">
-    <cfRule type="containsText" dxfId="125" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5 N3 N7 N12 N9">
+  <conditionalFormatting sqref="N3 N5 N7 N12 N9">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8150,12 +8163,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N3 N5 N7 N12 N9">
-    <cfRule type="containsText" dxfId="124" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="containsText" dxfId="123" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8172,7 +8185,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="122" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8189,7 +8202,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="containsText" dxfId="121" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8206,12 +8219,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="containsText" dxfId="120" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11">
-    <cfRule type="containsText" dxfId="119" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8228,7 +8241,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R12">
-    <cfRule type="containsText" dxfId="118" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8269,7 +8282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M4 M13">
-    <cfRule type="containsText" dxfId="117" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8286,7 +8299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M7 M9 M11:M12">
-    <cfRule type="containsText" dxfId="116" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8303,7 +8316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:R8">
-    <cfRule type="containsText" dxfId="115" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8332,12 +8345,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="containsText" dxfId="114" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="113" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8354,7 +8367,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="112" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8371,7 +8384,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="111" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8388,7 +8401,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="containsText" dxfId="110" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8405,7 +8418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="109" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8446,7 +8459,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="containsText" dxfId="108" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8463,12 +8476,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="containsText" dxfId="107" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="containsText" dxfId="106" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8485,12 +8498,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="containsText" dxfId="105" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q10))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10">
-    <cfRule type="containsText" dxfId="104" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8507,7 +8520,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:R14 M16 O16:R16">
-    <cfRule type="containsText" dxfId="103" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8524,7 +8537,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:R15 M17:N17 P17:R17">
-    <cfRule type="containsText" dxfId="102" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8541,7 +8554,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="101" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8558,7 +8571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="100" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8575,7 +8588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17">
-    <cfRule type="containsText" dxfId="99" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8592,7 +8605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="containsText" dxfId="98" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8603,39 +8616,39 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -8653,26 +8666,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -8687,13 +8700,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -8705,19 +8718,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1936</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>0</v>
@@ -8726,13 +8739,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>0</v>
@@ -8763,37 +8776,37 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1937</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -8821,37 +8834,37 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1938</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -8879,37 +8892,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1939</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -8937,37 +8950,37 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1940</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -8995,39 +9008,39 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1940</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>386</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>391</v>
-      </c>
       <c r="K8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -9055,40 +9068,40 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1941</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L9" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="20">
         <v>0</v>
@@ -9113,21 +9126,21 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1941</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>386</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>0</v>
@@ -9173,37 +9186,37 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1942</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L11" s="20">
         <v>0</v>
@@ -9231,40 +9244,40 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1943</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L12" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="20">
         <v>0</v>
@@ -9289,34 +9302,34 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1944</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>0</v>
@@ -9347,19 +9360,19 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1945</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F14" s="13" t="s">
         <v>0</v>
@@ -9368,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>0</v>
@@ -9405,15 +9418,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>1945</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="13" t="s">
@@ -9429,7 +9442,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J15" s="13" t="s">
         <v>0</v>
@@ -9463,15 +9476,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>1946</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="13" t="s">
@@ -9487,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="J16" s="11" t="s">
         <v>398</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>399</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>0</v>
@@ -9521,19 +9534,19 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1947</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>0</v>
@@ -9542,10 +9555,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>400</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>401</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>0</v>
@@ -9579,19 +9592,19 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1948</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>0</v>
@@ -9603,7 +9616,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>0</v>
@@ -9645,7 +9658,24 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6 N4 N11 N13 P4:R7 Q3 P13:Q13 P9:R9 P11:R12">
+  <conditionalFormatting sqref="N4 N6 N11 N13 P4:R7 Q3 P13:Q13 P9:R9 P11:R12">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4 N6 N11 N13 P4:R7 Q3 P13:Q13 P9:R9 P11:R12">
+    <cfRule type="containsText" dxfId="98" priority="89" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6 O4 O11 O13">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9657,12 +9687,36 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4 N6 N11 N13 P4:R7 Q3 P13:Q13 P9:R9 P11:R12">
+  <conditionalFormatting sqref="L3 L5 L7 L12 L14">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4 O6 O11 O13">
     <cfRule type="containsText" dxfId="97" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O6 O11 O13">
+  <conditionalFormatting sqref="L4 L6 L11 L13">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5 O3 O7 O12 O14 O9">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9674,63 +9728,44 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L3 L7 L12 L14 L9">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O6 O11 O13">
+  <conditionalFormatting sqref="O3 O5 O7 O12 O14 O9">
     <cfRule type="containsText" dxfId="96" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4 L11 L13">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3 O5 O7 O12 O14 O9">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3 O5 O7 O12 O14 O9">
+  <conditionalFormatting sqref="L3 L5 L7 L12 L14">
     <cfRule type="containsText" dxfId="95" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3 L5 L7 L12 L14 L9">
+  <conditionalFormatting sqref="L4 L6 L11 L13">
     <cfRule type="containsText" dxfId="94" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4 L6 L11 L13">
+  <conditionalFormatting sqref="N5 N7 N12 N9">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5 N7 N12 N9">
     <cfRule type="containsText" dxfId="93" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7 N5 N12 N9">
+  <conditionalFormatting sqref="N3">
+    <cfRule type="containsText" dxfId="92" priority="77" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9742,148 +9777,160 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5 N7 N12 N9">
-    <cfRule type="containsText" dxfId="92" priority="77" operator="containsText" text="*-">
+  <conditionalFormatting sqref="P3">
+    <cfRule type="containsText" dxfId="91" priority="75" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(P3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P3">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="containsText" dxfId="90" priority="73" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(R3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="containsText" dxfId="89" priority="71" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(N14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="containsText" dxfId="88" priority="69" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(P14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P14">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="containsText" dxfId="87" priority="61" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(Q14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q14">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="containsText" dxfId="86" priority="65" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(R13))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="containsText" dxfId="85" priority="63" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(R14))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11 M6 M13">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M4 M14">
+    <cfRule type="containsText" dxfId="84" priority="57" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M4 M14">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6 M11 M13">
+    <cfRule type="containsText" dxfId="83" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="containsText" dxfId="91" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="containsText" dxfId="90" priority="73" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(P3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="containsText" dxfId="89" priority="71" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(R3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
-    <cfRule type="containsText" dxfId="88" priority="69" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(N14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="containsText" dxfId="87" priority="67" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(P14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="containsText" dxfId="86" priority="59" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(Q14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q14">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="containsText" dxfId="85" priority="63" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(R13))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="containsText" dxfId="84" priority="61" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(R14))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6 M11 M13">
+  <conditionalFormatting sqref="M5 M7 M12 M9">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9895,29 +9942,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M4 M14">
-    <cfRule type="containsText" dxfId="83" priority="55" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3:M4 M14">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6 M11 M13">
+  <conditionalFormatting sqref="M5 M7 M12 M9">
     <cfRule type="containsText" dxfId="82" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7 M5 M12 M9">
+  <conditionalFormatting sqref="P8:R8">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9929,12 +9959,24 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M5 M7 M12 M9">
+  <conditionalFormatting sqref="P8:R8">
     <cfRule type="containsText" dxfId="81" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:R8">
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9946,46 +9988,34 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P8:R8">
+  <conditionalFormatting sqref="O8">
     <cfRule type="containsText" dxfId="80" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
     <cfRule type="containsText" dxfId="79" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
     <cfRule type="containsText" dxfId="78" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
+  <conditionalFormatting sqref="M8">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9997,80 +10027,80 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
+  <conditionalFormatting sqref="M8">
     <cfRule type="containsText" dxfId="77" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="76" priority="41" operator="containsText" text="*-">
+  <conditionalFormatting sqref="L10">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="containsText" dxfId="76" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="75" priority="35" operator="containsText" text="*-">
+  <conditionalFormatting sqref="M10:R10">
+    <cfRule type="containsText" dxfId="75" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(M10))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:R10">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:O18 L15:O16 Q15:R15 R16 M17:N17 Q17:R18">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18:O18 L15:O16 Q15:R15 R16 M17:N17 Q17:R18">
+    <cfRule type="containsText" dxfId="74" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10:R10">
-    <cfRule type="containsText" dxfId="74" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(M10))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10:R10">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:O18 L15:O16 Q15:R15 R16 M17:N17 Q17:R18">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M18:O18 L15:O16 Q15:R15 R16 M17:N17 Q17:R18">
-    <cfRule type="containsText" dxfId="73" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
+  <conditionalFormatting sqref="P16">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10082,12 +10112,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
+  <conditionalFormatting sqref="P16">
     <cfRule type="containsText" dxfId="72" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
+  <conditionalFormatting sqref="Q16">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10099,12 +10129,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
+  <conditionalFormatting sqref="Q16">
     <cfRule type="containsText" dxfId="71" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
+  <conditionalFormatting sqref="L17">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10116,12 +10146,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q16">
+  <conditionalFormatting sqref="L17">
     <cfRule type="containsText" dxfId="70" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="O17">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10133,12 +10163,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
+  <conditionalFormatting sqref="O17">
     <cfRule type="containsText" dxfId="69" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="P17">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10150,12 +10180,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O17">
+  <conditionalFormatting sqref="P17">
     <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
+  <conditionalFormatting sqref="P18">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10167,12 +10197,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
+  <conditionalFormatting sqref="P18">
     <cfRule type="containsText" dxfId="67" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
+  <conditionalFormatting sqref="L18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10184,12 +10214,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
+  <conditionalFormatting sqref="L18">
     <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L9">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10201,7 +10231,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L18">
+  <conditionalFormatting sqref="L9">
     <cfRule type="containsText" dxfId="65" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
@@ -10213,39 +10243,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -10263,26 +10293,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -10297,13 +10327,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -10315,37 +10345,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1935</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>223</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="J3" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>226</v>
       </c>
       <c r="L3" s="20">
         <v>0</v>
@@ -10373,7 +10403,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1936</v>
       </c>
@@ -10433,7 +10463,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1937</v>
       </c>
@@ -10493,37 +10523,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1938</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I6" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>234</v>
-      </c>
       <c r="K6" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -10551,37 +10581,37 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1939</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -10609,22 +10639,22 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1939</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>14</v>
@@ -10636,10 +10666,10 @@
         <v>18</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -10667,37 +10697,37 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1940</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -10725,37 +10755,37 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>1941</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -10783,31 +10813,31 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>1942</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J11" s="11" t="s">
         <v>15</v>
@@ -10841,34 +10871,34 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>1943</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K12" s="13" t="s">
         <v>0</v>
@@ -10899,25 +10929,25 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>1944</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>0</v>
@@ -10926,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K13" s="13" t="s">
         <v>0</v>
@@ -10965,7 +10995,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N11 N8 N13 P6:R6 P8:R11 Q13 P12:Q12">
+  <conditionalFormatting sqref="N8 N11 N13 P6:R6 P8:R11 Q13 P12:Q12">
     <cfRule type="colorScale" priority="52">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10982,7 +11012,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O11 O8">
+  <conditionalFormatting sqref="O8 O11">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11011,7 +11041,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L11">
+  <conditionalFormatting sqref="L11 L8">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11351,7 +11381,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8 M11 M13">
+  <conditionalFormatting sqref="M11 M8 M13">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11397,39 +11427,39 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -11447,26 +11477,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -11481,13 +11511,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -11499,25 +11529,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1933</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>29</v>
@@ -11557,37 +11587,37 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1934</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -11615,19 +11645,19 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1935</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>0</v>
@@ -11645,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -11673,37 +11703,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -11731,37 +11761,37 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1937</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -11789,19 +11819,19 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>0</v>
@@ -11810,16 +11840,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -11847,37 +11877,37 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -11913,7 +11943,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6 N4 N9 P4:R4 P6:R9 R5 P3:Q3">
+  <conditionalFormatting sqref="N4 N6 N9 P4:R4 P6:R9 R5 P3:Q3">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11930,7 +11960,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O6 O9">
+  <conditionalFormatting sqref="O6 O4 O9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11942,7 +11972,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3 L5 L7:L8">
+  <conditionalFormatting sqref="L5 L3 L7:L8">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11959,7 +11989,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4 L9">
+  <conditionalFormatting sqref="L4 L6 L9">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11998,7 +12028,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7 N3">
+  <conditionalFormatting sqref="N3 N7">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12158,39 +12188,39 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -12208,26 +12238,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -12242,13 +12272,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -12260,15 +12290,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1936</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="13" t="s">
@@ -12278,19 +12308,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>0</v>
@@ -12318,37 +12348,37 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1937</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -12376,37 +12406,37 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1938</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -12434,37 +12464,37 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1939</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -12500,7 +12530,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N4 N6 P3:R6">
+  <conditionalFormatting sqref="N6 N4 P3:R6">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12517,7 +12547,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O6">
+  <conditionalFormatting sqref="O6 O4">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12546,7 +12576,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4">
+  <conditionalFormatting sqref="L4 L6">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12585,7 +12615,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3 N5">
+  <conditionalFormatting sqref="N5 N3">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12694,39 +12724,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="18" width="3.81640625" customWidth="1"/>
+    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>35</v>
       </c>
       <c r="D1" s="34"/>
       <c r="E1" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -12744,26 +12774,26 @@
       <c r="Q1" s="26"/>
       <c r="R1" s="27"/>
     </row>
-    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22"/>
       <c r="B2" s="32"/>
       <c r="C2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -12778,13 +12808,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -12796,39 +12826,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1935</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="E3" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L3" s="20">
         <v>0</v>
@@ -12856,39 +12886,39 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>1936</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>291</v>
-      </c>
       <c r="E4" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -12916,39 +12946,39 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>1936</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -12976,39 +13006,39 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>1937</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -13036,39 +13066,39 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>1938</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -13096,39 +13126,39 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>1939</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -13164,7 +13194,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N7 N4 P3:R4 P6:R8">
+  <conditionalFormatting sqref="N4 N7 P3:R4 P6:R8">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13181,7 +13211,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O7">
+  <conditionalFormatting sqref="O7 O4">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13193,7 +13223,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3 L6 L8">
+  <conditionalFormatting sqref="L6 L3 L8">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13210,7 +13240,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L4">
+  <conditionalFormatting sqref="L4 L7">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13222,7 +13252,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O3 O6 O8">
+  <conditionalFormatting sqref="O6 O3 O8">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13249,7 +13279,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N3 N8">
+  <conditionalFormatting sqref="N3 N6 N8">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13375,7 +13405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13385,25 +13415,25 @@
       <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -13411,10 +13441,10 @@
         <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -13422,25 +13452,25 @@
         <v>32</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0800-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0800-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>

--- a/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFBCC69-8796-4BC4-B67B-5BC34D96FE01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D11FC-F8B2-4DD1-902A-5A06E50E9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3431,1631 +3431,7 @@
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="206">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="204">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5064,6 +3440,1614 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5095,9 +5079,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="205"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="204" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="203"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -5406,7 +5390,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5894,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="20">
         <v>0</v>
@@ -6576,16 +6560,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7:N9 N12:N15 P6:R10 P12:R14 P15:Q15">
-    <cfRule type="containsText" dxfId="202" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="201" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9 O12 O14">
+  <conditionalFormatting sqref="O9 O7 O12 O14">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6598,7 +6582,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N10">
-    <cfRule type="containsText" dxfId="200" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6615,7 +6599,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="containsText" dxfId="199" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6643,7 +6627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10 L13 L15">
+  <conditionalFormatting sqref="L6 L8 L10 L13 L15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6656,11 +6640,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7 O9 O12 O14">
-    <cfRule type="containsText" dxfId="198" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7 L12 L14">
+  <conditionalFormatting sqref="L7 L9 L12 L14">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6672,20 +6656,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O8 O6 O13 O15">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O6 O8 O13 O15">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O8 O13 O15">
-    <cfRule type="containsText" dxfId="197" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6702,7 +6686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 L8 L10 L13 L15">
-    <cfRule type="containsText" dxfId="196" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6719,7 +6703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 L9 L12 L14">
-    <cfRule type="containsText" dxfId="195" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6736,17 +6720,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11 P11:R11">
-    <cfRule type="containsText" dxfId="194" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="containsText" dxfId="193" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="192" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6763,12 +6747,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="containsText" dxfId="191" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R15))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M10">
-    <cfRule type="containsText" dxfId="190" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6797,7 +6781,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="189" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6814,7 +6798,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="188" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6831,7 +6815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M15">
-    <cfRule type="containsText" dxfId="187" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6848,7 +6832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="containsText" dxfId="186" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6877,7 +6861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16">
-    <cfRule type="containsText" dxfId="185" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6894,12 +6878,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="184" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="183" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6916,7 +6900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16">
-    <cfRule type="containsText" dxfId="182" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6933,12 +6917,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q16">
-    <cfRule type="containsText" dxfId="181" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="containsText" dxfId="180" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6955,7 +6939,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:O18 Q17:R17 R18">
-    <cfRule type="containsText" dxfId="179" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6984,7 +6968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="containsText" dxfId="178" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7001,7 +6985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="177" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7018,12 +7002,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q18">
-    <cfRule type="containsText" dxfId="176" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:R20">
-    <cfRule type="containsText" dxfId="175" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L19))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7040,7 +7024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="containsText" dxfId="174" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7057,7 +7041,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R4">
-    <cfRule type="containsText" dxfId="173" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7074,7 +7058,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:R5">
-    <cfRule type="containsText" dxfId="172" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8170,97 +8154,97 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7 N9 P7:R9 Q10:R10 P6">
-    <cfRule type="containsText" dxfId="171" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O9 O7">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8 L6 L10">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O7 O9">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+    <cfRule type="containsText" dxfId="171" priority="37" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9 L7">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10 O8">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8 O10">
+    <cfRule type="containsText" dxfId="170" priority="35" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 L8 L10">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9">
-    <cfRule type="containsText" dxfId="170" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 L9">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O10">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O10">
-    <cfRule type="containsText" dxfId="169" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10">
-    <cfRule type="containsText" dxfId="168" priority="33" operator="containsText" text="*-">
+  <conditionalFormatting sqref="N8 N6 N10">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6 N8 N10">
+    <cfRule type="containsText" dxfId="167" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9">
-    <cfRule type="containsText" dxfId="167" priority="31" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8 N10">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8 N10">
-    <cfRule type="containsText" dxfId="166" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="containsText" dxfId="165" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8277,7 +8261,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10">
-    <cfRule type="containsText" dxfId="164" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8294,7 +8278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6">
-    <cfRule type="containsText" dxfId="163" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8311,7 +8295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="containsText" dxfId="162" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8340,7 +8324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M10">
-    <cfRule type="containsText" dxfId="161" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8357,7 +8341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="160" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8374,12 +8358,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="159" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="containsText" dxfId="158" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8396,7 +8380,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R4">
-    <cfRule type="containsText" dxfId="157" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8413,7 +8397,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:R5">
-    <cfRule type="containsText" dxfId="156" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8430,7 +8414,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:R11 L14:R14 L17:R17">
-    <cfRule type="containsText" dxfId="155" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8447,7 +8431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:R12 L15:R15 L18:R18">
-    <cfRule type="containsText" dxfId="154" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8464,7 +8448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:R13 L16:R16">
-    <cfRule type="containsText" dxfId="153" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9655,110 +9639,110 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
-    <cfRule type="containsText" dxfId="152" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="O9 O7 O14 O16">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8 L6 L10 L15 L12">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="O7 O9 O14 O16">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
+    <cfRule type="containsText" dxfId="152" priority="83" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9 L7 L14 L16">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10 O8 O15 O12">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8 O10 O15 O12">
+    <cfRule type="containsText" dxfId="151" priority="81" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6 L8 L10 L15 L12">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9 O14 O16">
-    <cfRule type="containsText" dxfId="151" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 L9 L14 L16">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O10 O15 O12">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O10 O15 O12">
-    <cfRule type="containsText" dxfId="150" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10 L15 L12">
-    <cfRule type="containsText" dxfId="149" priority="79" operator="containsText" text="*-">
+  <conditionalFormatting sqref="N8 N6 N10 N15 N12">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6 N8 N10 N15 N12">
+    <cfRule type="containsText" dxfId="148" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9 L14 L16">
-    <cfRule type="containsText" dxfId="148" priority="77" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8 N10 N15 N12">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8 N10 N15 N12">
-    <cfRule type="containsText" dxfId="147" priority="75" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="containsText" dxfId="146" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9775,7 +9759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="containsText" dxfId="145" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9792,7 +9776,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="containsText" dxfId="144" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9809,12 +9793,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="143" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R16))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="containsText" dxfId="142" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9831,7 +9815,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="containsText" dxfId="141" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9872,7 +9856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M16">
-    <cfRule type="containsText" dxfId="140" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9889,7 +9873,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:M10 M12 M14:M15">
-    <cfRule type="containsText" dxfId="139" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9906,7 +9890,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:R11">
-    <cfRule type="containsText" dxfId="138" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9935,12 +9919,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="containsText" dxfId="137" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="136" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9957,7 +9941,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="135" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9974,7 +9958,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="134" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9991,7 +9975,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13">
-    <cfRule type="containsText" dxfId="133" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10008,7 +9992,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="132" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10049,7 +10033,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13">
-    <cfRule type="containsText" dxfId="131" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10066,12 +10050,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="containsText" dxfId="130" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="containsText" dxfId="129" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10088,12 +10072,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q13">
-    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q13))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R13">
-    <cfRule type="containsText" dxfId="127" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10110,7 +10094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:R17 M19 O19:R19">
-    <cfRule type="containsText" dxfId="126" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10127,7 +10111,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:R18 M20:N20 P20:R20">
-    <cfRule type="containsText" dxfId="125" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10144,7 +10128,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19">
-    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10161,7 +10145,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="123" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10178,7 +10162,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="122" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10195,12 +10179,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20">
-    <cfRule type="containsText" dxfId="121" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10217,7 +10201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R4">
-    <cfRule type="containsText" dxfId="119" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10234,7 +10218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:R5">
-    <cfRule type="containsText" dxfId="118" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11479,24 +11463,24 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
-    <cfRule type="containsText" dxfId="117" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7 O14 O16">
+  <conditionalFormatting sqref="O7 O9 O14 O16">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11508,81 +11492,81 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L8 L6 L10 L15 L17">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7 O9 O14 O16">
+    <cfRule type="containsText" dxfId="117" priority="93" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9 L7 L14 L16">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6 O8 O10 O15 O17 O12">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6 O8 O10 O15 O17 O12">
+    <cfRule type="containsText" dxfId="116" priority="91" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L6 L8 L10 L15 L17">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9 O14 O16">
-    <cfRule type="containsText" dxfId="116" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 L9 L14 L16">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O6 O10 O15 O17 O12">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O8 O10 O15 O17 O12">
-    <cfRule type="containsText" dxfId="115" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10 L15 L17">
-    <cfRule type="containsText" dxfId="114" priority="89" operator="containsText" text="*-">
+  <conditionalFormatting sqref="N10 N8 N15 N12">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8 N10 N15 N12">
+    <cfRule type="containsText" dxfId="113" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9 L14 L16">
-    <cfRule type="containsText" dxfId="113" priority="87" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N10 N15 N12">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N10 N15 N12">
-    <cfRule type="containsText" dxfId="112" priority="85" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N6">
-    <cfRule type="containsText" dxfId="111" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11599,7 +11583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6">
-    <cfRule type="containsText" dxfId="110" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11616,7 +11600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="containsText" dxfId="109" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11633,7 +11617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="108" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11650,7 +11634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17">
-    <cfRule type="containsText" dxfId="107" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11667,7 +11651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17">
-    <cfRule type="containsText" dxfId="106" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11684,7 +11668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R16">
-    <cfRule type="containsText" dxfId="105" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11701,7 +11685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R17">
-    <cfRule type="containsText" dxfId="104" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R17))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11717,7 +11701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14 M9 M16">
+  <conditionalFormatting sqref="M9 M14 M16">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11730,7 +11714,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7 M17">
-    <cfRule type="containsText" dxfId="103" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11747,24 +11731,24 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9 M14 M16">
-    <cfRule type="containsText" dxfId="102" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="M10 M8 M15 M12">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M8 M10 M15 M12">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8 M10 M15 M12">
-    <cfRule type="containsText" dxfId="101" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11781,7 +11765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:R11">
-    <cfRule type="containsText" dxfId="100" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11810,12 +11794,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="containsText" dxfId="99" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="98" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11832,7 +11816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11">
-    <cfRule type="containsText" dxfId="97" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11849,7 +11833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="96" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11866,12 +11850,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="95" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M13:R13">
-    <cfRule type="containsText" dxfId="94" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M13))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11900,7 +11884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M21:O21 L18:O19 Q18:R18 R19 M20:N20 Q20:R21">
-    <cfRule type="containsText" dxfId="93" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11917,7 +11901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18">
-    <cfRule type="containsText" dxfId="92" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11934,7 +11918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19">
-    <cfRule type="containsText" dxfId="91" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11951,7 +11935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q19">
-    <cfRule type="containsText" dxfId="90" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11968,7 +11952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20">
-    <cfRule type="containsText" dxfId="89" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11985,7 +11969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20">
-    <cfRule type="containsText" dxfId="88" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12002,7 +11986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20">
-    <cfRule type="containsText" dxfId="87" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12019,7 +12003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21">
-    <cfRule type="containsText" dxfId="86" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12036,7 +12020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21">
-    <cfRule type="containsText" dxfId="85" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12053,12 +12037,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12075,7 +12059,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R4">
-    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12092,7 +12076,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:R5">
-    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13227,24 +13211,24 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N13 N10 N15 P8:R8 P10:R13 Q15 P14:Q14">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N10 N13 N15 P8:R8 P10:R13 Q15 P14:Q14">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10 N13 N15 P8:R8 P10:R13 Q15 P14:Q14">
-    <cfRule type="containsText" dxfId="80" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10 O13">
+  <conditionalFormatting sqref="O13 O10">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13269,11 +13253,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10 O13">
-    <cfRule type="containsText" dxfId="79" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 L10">
+  <conditionalFormatting sqref="L10 L13">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13298,17 +13282,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8 O11:O12">
-    <cfRule type="containsText" dxfId="78" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8 L11:L12 L14">
-    <cfRule type="containsText" dxfId="77" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10 L13">
-    <cfRule type="containsText" dxfId="76" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13325,7 +13309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8 N11:N12 N14">
-    <cfRule type="containsText" dxfId="75" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13342,7 +13326,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:R5">
-    <cfRule type="containsText" dxfId="74" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13371,12 +13355,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="73" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="72" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13393,7 +13377,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="71" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13410,7 +13394,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:R9">
-    <cfRule type="containsText" dxfId="70" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13439,12 +13423,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9">
-    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13461,12 +13445,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="containsText" dxfId="67" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L7 N6:R7">
-    <cfRule type="containsText" dxfId="66" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13483,7 +13467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="65" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13500,7 +13484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="containsText" dxfId="64" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13517,7 +13501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13534,7 +13518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15">
-    <cfRule type="containsText" dxfId="62" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13551,7 +13535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14">
-    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R14))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13568,7 +13552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R15">
-    <cfRule type="containsText" dxfId="60" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R15))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13597,7 +13581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M7">
-    <cfRule type="containsText" dxfId="59" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13613,7 +13597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13 M10 M15">
+  <conditionalFormatting sqref="M10 M13 M15">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13626,12 +13610,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10 M13 M15">
-    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8 M11:M12 M14">
-    <cfRule type="containsText" dxfId="57" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13648,12 +13632,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="56" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13670,7 +13654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R4">
-    <cfRule type="containsText" dxfId="54" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13687,7 +13671,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L16:L17 N16:R17">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13704,7 +13688,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16:M17">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M16))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13721,7 +13705,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L19 N18:R19">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13738,7 +13722,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M19">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14817,24 +14801,24 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N6 N4 N9 P4:R4 P6:R9 R5 P3:Q3">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N4 N6 N9 P4:R4 P6:R9 R5 P3:Q3">
-    <cfRule type="colorScale" priority="34">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4 N6 N9 P4:R4 P6:R9 R5 P3:Q3">
-    <cfRule type="containsText" dxfId="52" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O4 O9">
+  <conditionalFormatting sqref="O4 O6 O9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14846,7 +14830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L3 L7:L8">
+  <conditionalFormatting sqref="L3 L5 L7:L8">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14859,11 +14843,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4 O6 O9">
-    <cfRule type="containsText" dxfId="51" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4 L6 L9">
+  <conditionalFormatting sqref="L6 L4 L9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14888,39 +14872,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3 O7:O8">
-    <cfRule type="containsText" dxfId="50" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3 L5 L7:L8">
-    <cfRule type="containsText" dxfId="49" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4 L6 L9">
-    <cfRule type="containsText" dxfId="48" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N7 N3">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N3 N7">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3 N7">
-    <cfRule type="containsText" dxfId="47" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="containsText" dxfId="46" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N8))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14937,7 +14921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
-    <cfRule type="containsText" dxfId="45" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(N5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14954,7 +14938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsText" dxfId="44" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14971,7 +14955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="containsText" dxfId="43" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(P5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14988,7 +14972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(Q5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15005,7 +14989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3">
-    <cfRule type="containsText" dxfId="41" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(R3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15034,7 +15018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M8">
-    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15051,12 +15035,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="39" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:L18 N10:R18">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15073,7 +15057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10:M18">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16158,7 +16142,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N7 P6:R9">
+  <conditionalFormatting sqref="N7 N9 P6:R9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16171,11 +16155,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7 N9 P6:R9">
-    <cfRule type="containsText" dxfId="38" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7">
+  <conditionalFormatting sqref="O7 O9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16200,11 +16184,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7 O9">
-    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9">
+  <conditionalFormatting sqref="L9 L7">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16229,21 +16213,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L8">
-    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7 L9">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N6">
+  <conditionalFormatting sqref="N6 N8">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16256,12 +16240,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6 N8">
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6">
-    <cfRule type="containsText" dxfId="32" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16278,7 +16262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="containsText" dxfId="31" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(O6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16307,7 +16291,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M7">
-    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M6))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16324,7 +16308,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16341,12 +16325,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9">
-    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="containsText" dxfId="27" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16363,7 +16347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R4">
-    <cfRule type="containsText" dxfId="26" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16380,7 +16364,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:R5">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16397,7 +16381,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:R10 L12:R12 L14:R14 L16:R16 L18:R18">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L10))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16414,7 +16398,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:R11 L13:R13 L15:R15 L17:R17">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17567,24 +17551,24 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
+  <conditionalFormatting sqref="N9 N6 P5:R6 P8:R10">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N6 N9 P5:R6 P8:R10">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N9 P5:R6 P8:R10">
-    <cfRule type="containsText" dxfId="24" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O6">
+  <conditionalFormatting sqref="O6 O9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17596,7 +17580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L5 L10">
+  <conditionalFormatting sqref="L5 L8 L10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17609,63 +17593,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6 O9">
-    <cfRule type="containsText" dxfId="23" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L9 L6">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5 O8 O10">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5 O8 O10">
+    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5 L8 L10">
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L6 L9">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O5 O10">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5 O8 O10">
-    <cfRule type="containsText" dxfId="22" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L8 L10">
-    <cfRule type="containsText" dxfId="21" priority="29" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L9">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
+  <conditionalFormatting sqref="N8 N5 N10">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5 N8 N10">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5 N8 N10">
-    <cfRule type="containsText" dxfId="19" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17682,7 +17666,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:R7">
-    <cfRule type="containsText" dxfId="18" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17711,12 +17695,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17733,7 +17717,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17750,7 +17734,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M9">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(M5))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17767,12 +17751,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M10">
-    <cfRule type="containsText" dxfId="13" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:R3">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17789,7 +17773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R4">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L4))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17806,7 +17790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:R11 L13:R13 L15:R15 L17:R17 L19:R19">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L11))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17823,7 +17807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:R12 L14:R14 L16:R16 L18:R18">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(L12))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{976D11FC-F8B2-4DD1-902A-5A06E50E9F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133BA6E-3CE5-4B9F-8577-050ACEED6B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -5386,11 +5386,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5988,7 +5988,7 @@
         <v>101</v>
       </c>
       <c r="L11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="3">
         <v>0</v>
@@ -6110,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="20">
         <v>0</v>
@@ -6569,7 +6569,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7 O12 O14">
+  <conditionalFormatting sqref="O7 O9 O12 O14">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6627,7 +6627,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10 L13 L15">
+  <conditionalFormatting sqref="L8 L6 L10 L13 L15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6644,7 +6644,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9 L12 L14">
+  <conditionalFormatting sqref="L9 L7 L12 L14">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6656,7 +6656,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O6 O13 O15">
+  <conditionalFormatting sqref="O6 O8 O13 O15">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8158,7 +8158,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7">
+  <conditionalFormatting sqref="O7 O9">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8170,7 +8170,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10">
+  <conditionalFormatting sqref="L6 L8 L10">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8187,7 +8187,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7">
+  <conditionalFormatting sqref="L7 L9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8199,7 +8199,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10 O8">
+  <conditionalFormatting sqref="O8 O10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8226,7 +8226,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N6 N10">
+  <conditionalFormatting sqref="N6 N8 N10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8478,7 +8478,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="3">
         <v>0</v>
@@ -9639,7 +9639,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
+  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9656,7 +9656,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7 O14 O16">
+  <conditionalFormatting sqref="O7 O9 O14 O16">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9668,7 +9668,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10 L15 L12">
+  <conditionalFormatting sqref="L6 L8 L10 L15 L12">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9685,7 +9685,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7 L14 L16">
+  <conditionalFormatting sqref="L7 L9 L14 L16">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9697,7 +9697,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10 O8 O15 O12">
+  <conditionalFormatting sqref="O8 O10 O15 O12">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9724,7 +9724,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N6 N10 N15 N12">
+  <conditionalFormatting sqref="N6 N8 N10 N15 N12">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10244,11 +10244,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:XFD5"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10678,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="20">
         <v>0</v>
@@ -11463,7 +11463,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
+  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11480,7 +11480,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9 O14 O16">
+  <conditionalFormatting sqref="O9 O7 O14 O16">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11492,7 +11492,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10 L15 L17">
+  <conditionalFormatting sqref="L6 L8 L10 L15 L17">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11509,7 +11509,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7 L14 L16">
+  <conditionalFormatting sqref="L7 L9 L14 L16">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11521,7 +11521,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O8 O10 O15 O17 O12">
+  <conditionalFormatting sqref="O8 O6 O10 O15 O17 O12">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11548,7 +11548,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10 N8 N15 N12">
+  <conditionalFormatting sqref="N8 N10 N15 N12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11701,7 +11701,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 M14 M16">
+  <conditionalFormatting sqref="M14 M9 M16">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11735,7 +11735,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10 M8 M15 M12">
+  <conditionalFormatting sqref="M8 M10 M15 M12">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13211,7 +13211,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N13 N10 N15 P8:R8 P10:R13 Q15 P14:Q14">
+  <conditionalFormatting sqref="N10 N13 N15 P8:R8 P10:R13 Q15 P14:Q14">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13228,7 +13228,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13 O10">
+  <conditionalFormatting sqref="O10 O13">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13257,7 +13257,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10 L13">
+  <conditionalFormatting sqref="L13 L10">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13597,7 +13597,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10 M13 M15">
+  <conditionalFormatting sqref="M13 M10 M15">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14801,7 +14801,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6 N4 N9 P4:R4 P6:R9 R5 P3:Q3">
+  <conditionalFormatting sqref="N4 N6 N9 P4:R4 P6:R9 R5 P3:Q3">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14818,7 +14818,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O6 O9">
+  <conditionalFormatting sqref="O6 O4 O9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14830,7 +14830,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3 L5 L7:L8">
+  <conditionalFormatting sqref="L5 L3 L7:L8">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14847,7 +14847,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4 L9">
+  <conditionalFormatting sqref="L4 L6 L9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14886,7 +14886,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7 N3">
+  <conditionalFormatting sqref="N3 N7">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16142,7 +16142,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N7 N9 P6:R9">
+  <conditionalFormatting sqref="N9 N7 P6:R9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16159,7 +16159,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9">
+  <conditionalFormatting sqref="O9 O7">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16188,7 +16188,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7">
+  <conditionalFormatting sqref="L7 L9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16227,7 +16227,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8">
+  <conditionalFormatting sqref="N8 N6">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17551,7 +17551,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N6 P5:R6 P8:R10">
+  <conditionalFormatting sqref="N6 N9 P5:R6 P8:R10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17568,7 +17568,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O9">
+  <conditionalFormatting sqref="O9 O6">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17580,7 +17580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L8 L10">
+  <conditionalFormatting sqref="L8 L5 L10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17597,7 +17597,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L6">
+  <conditionalFormatting sqref="L6 L9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17609,7 +17609,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5 O8 O10">
+  <conditionalFormatting sqref="O8 O5 O10">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17636,7 +17636,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N5 N10">
+  <conditionalFormatting sqref="N5 N8 N10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9133BA6E-3CE5-4B9F-8577-050ACEED6B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB38BD0-FE05-4A07-99CF-D66C99568395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -23,6 +23,16 @@
     <sheet name="5ℛℳ" sheetId="31" r:id="rId8"/>
     <sheet name="Links" sheetId="21" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1₰'!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'10₰'!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'1ℛℳ'!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2₰'!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'2ℛℳ'!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'5₰'!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'50₰'!$B$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'5ℛℳ'!$B$2:$K$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1887,7 +1897,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="404">
   <si>
     <t>-</t>
   </si>
@@ -1994,12 +2004,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -3096,6 +3100,15 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Composition</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_distinctions_1</t>
+  </si>
+  <si>
+    <t>Subtype_2#Reverse</t>
   </si>
 </sst>
 </file>
@@ -3392,10 +3405,12 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3414,17 +3429,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5386,36 +5399,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="H23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -5434,25 +5445,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -5467,13 +5480,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -5670,14 +5683,14 @@
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -5689,13 +5702,13 @@
         <v>16</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -5728,32 +5741,32 @@
         <v>1937</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -5786,32 +5799,32 @@
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="I8" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -5844,32 +5857,32 @@
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -5902,14 +5915,14 @@
         <v>1940</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>0</v>
@@ -5921,13 +5934,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -5960,32 +5973,32 @@
         <v>1940</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L11" s="20">
         <v>1</v>
@@ -6018,32 +6031,32 @@
         <v>1941</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L12" s="20">
         <v>0</v>
@@ -6076,32 +6089,32 @@
         <v>1942</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K13" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L13" s="20">
         <v>0</v>
@@ -6134,32 +6147,32 @@
         <v>1943</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L14" s="20">
         <v>0</v>
@@ -6192,29 +6205,29 @@
         <v>1944</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>0</v>
@@ -6250,14 +6263,14 @@
         <v>1945</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>0</v>
@@ -6266,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" s="13" t="s">
         <v>0</v>
@@ -6308,10 +6321,10 @@
         <v>1945</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="13" t="s">
@@ -6327,7 +6340,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="J17" s="13" t="s">
         <v>0</v>
@@ -6366,10 +6379,10 @@
         <v>1946</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="13" t="s">
@@ -6385,10 +6398,10 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>0</v>
@@ -6540,11 +6553,11 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="L1:R1"/>
     <mergeCell ref="E1:K1"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="N7:N9 N12:N15 P6:R10 P12:R14 P15:Q15">
@@ -6569,7 +6582,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9 O12 O14">
+  <conditionalFormatting sqref="O9 O7 O12 O14">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6627,7 +6640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10 L13 L15">
+  <conditionalFormatting sqref="L6 L8 L10 L13 L15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6644,7 +6657,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7 L12 L14">
+  <conditionalFormatting sqref="L7 L9 L12 L14">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6656,7 +6669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O8 O13 O15">
+  <conditionalFormatting sqref="O8 O6 O13 O15">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7088,32 +7101,30 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19:XFD19"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -7132,25 +7143,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -7165,13 +7178,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -7368,10 +7381,10 @@
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
@@ -7381,13 +7394,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>0</v>
@@ -7426,32 +7439,32 @@
         <v>1937</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -7484,32 +7497,32 @@
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -7542,32 +7555,32 @@
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -7600,32 +7613,32 @@
         <v>1940</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -8134,9 +8147,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
@@ -8158,7 +8171,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9">
+  <conditionalFormatting sqref="O9 O7">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8170,7 +8183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10">
+  <conditionalFormatting sqref="L8 L6 L10">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8187,7 +8200,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9">
+  <conditionalFormatting sqref="L9 L7">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8199,7 +8212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O10">
+  <conditionalFormatting sqref="O10 O8">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8226,7 +8239,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8 N10">
+  <conditionalFormatting sqref="N8 N6 N10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8478,32 +8491,30 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -8522,25 +8533,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -8555,13 +8568,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -8758,20 +8771,20 @@
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>0</v>
@@ -8780,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>0</v>
@@ -8816,32 +8829,32 @@
         <v>1937</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -8874,32 +8887,32 @@
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -8932,32 +8945,32 @@
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -8990,32 +9003,32 @@
         <v>1940</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L10" s="20">
         <v>1</v>
@@ -9048,34 +9061,34 @@
         <v>1940</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="G11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="E11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>387</v>
-      </c>
       <c r="I11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L11" s="20">
         <v>0</v>
@@ -9108,32 +9121,32 @@
         <v>1941</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L12" s="20">
         <v>0</v>
@@ -9166,16 +9179,16 @@
         <v>1941</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>0</v>
@@ -9187,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>0</v>
@@ -9226,29 +9239,29 @@
         <v>1942</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>0</v>
@@ -9284,29 +9297,29 @@
         <v>1943</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>0</v>
@@ -9342,29 +9355,29 @@
         <v>1944</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>0</v>
@@ -9520,20 +9533,20 @@
         <v>1947</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F19" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>0</v>
@@ -9578,14 +9591,14 @@
         <v>1948</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>0</v>
@@ -9594,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="I20" s="13" t="s">
         <v>0</v>
@@ -9632,14 +9645,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
+  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9656,7 +9669,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9 O14 O16">
+  <conditionalFormatting sqref="O9 O7 O14 O16">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9668,7 +9681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10 L15 L12">
+  <conditionalFormatting sqref="L8 L6 L10 L15 L12">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9685,7 +9698,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9 L14 L16">
+  <conditionalFormatting sqref="L9 L7 L14 L16">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9697,7 +9710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O10 O15 O12">
+  <conditionalFormatting sqref="O10 O8 O15 O12">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9724,7 +9737,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8 N10 N15 N12">
+  <conditionalFormatting sqref="N8 N6 N10 N15 N12">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10244,36 +10257,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -10292,25 +10303,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -10325,13 +10338,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -10528,14 +10541,14 @@
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
@@ -10544,13 +10557,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>0</v>
@@ -10586,32 +10599,32 @@
         <v>1937</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -10644,32 +10657,32 @@
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -10702,32 +10715,32 @@
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -10760,32 +10773,32 @@
         <v>1940</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -10818,34 +10831,34 @@
         <v>1940</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="K11" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L11" s="20">
         <v>0</v>
@@ -10878,32 +10891,32 @@
         <v>1941</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L12" s="20">
         <v>0</v>
@@ -10936,16 +10949,16 @@
         <v>1941</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>0</v>
@@ -10996,32 +11009,32 @@
         <v>1942</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L14" s="20">
         <v>0</v>
@@ -11054,32 +11067,32 @@
         <v>1943</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L15" s="20">
         <v>1</v>
@@ -11112,29 +11125,29 @@
         <v>1944</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>0</v>
@@ -11170,14 +11183,14 @@
         <v>1945</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>0</v>
@@ -11186,7 +11199,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I17" s="13" t="s">
         <v>0</v>
@@ -11228,10 +11241,10 @@
         <v>1945</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="13" t="s">
@@ -11247,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J18" s="13" t="s">
         <v>0</v>
@@ -11286,10 +11299,10 @@
         <v>1946</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="13" t="s">
@@ -11305,10 +11318,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K19" s="13" t="s">
         <v>0</v>
@@ -11344,14 +11357,14 @@
         <v>1947</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="13" t="s">
         <v>0</v>
@@ -11360,10 +11373,10 @@
         <v>0</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J20" s="13" t="s">
         <v>0</v>
@@ -11402,14 +11415,14 @@
         <v>1948</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>0</v>
@@ -11421,7 +11434,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>0</v>
@@ -11456,14 +11469,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
+  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11480,7 +11493,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7 O14 O16">
+  <conditionalFormatting sqref="O7 O9 O14 O16">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11492,7 +11505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10 L15 L17">
+  <conditionalFormatting sqref="L8 L6 L10 L15 L17">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11509,7 +11522,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9 L14 L16">
+  <conditionalFormatting sqref="L9 L7 L14 L16">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11521,7 +11534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O6 O10 O15 O17 O12">
+  <conditionalFormatting sqref="O6 O8 O10 O15 O17 O12">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11548,7 +11561,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N10 N15 N12">
+  <conditionalFormatting sqref="N10 N8 N15 N12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11701,7 +11714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14 M9 M16">
+  <conditionalFormatting sqref="M9 M14 M16">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11735,7 +11748,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M8 M10 M15 M12">
+  <conditionalFormatting sqref="M10 M8 M15 M12">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12106,32 +12119,30 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16:S17"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -12150,25 +12161,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -12183,13 +12196,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -12326,32 +12339,32 @@
         <v>1935</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="11" t="s">
         <v>223</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>225</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -12504,32 +12517,32 @@
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="I8" s="11" t="s">
-        <v>232</v>
-      </c>
       <c r="J8" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>233</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>235</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -12562,32 +12575,32 @@
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>231</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>25</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>236</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -12620,17 +12633,17 @@
         <v>1939</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>14</v>
@@ -12642,10 +12655,10 @@
         <v>18</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -12678,32 +12691,32 @@
         <v>1940</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L11" s="20">
         <v>0</v>
@@ -12736,32 +12749,32 @@
         <v>1941</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K12" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L12" s="20">
         <v>0</v>
@@ -12794,26 +12807,26 @@
         <v>1942</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>241</v>
-      </c>
       <c r="H13" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J13" s="11" t="s">
         <v>15</v>
@@ -12852,29 +12865,29 @@
         <v>1943</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="H14" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>0</v>
@@ -12910,20 +12923,20 @@
         <v>1944</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>0</v>
@@ -12932,7 +12945,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>0</v>
@@ -13204,14 +13217,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0400-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10 N13 N15 P8:R8 P10:R13 Q15 P14:Q14">
+  <conditionalFormatting sqref="N13 N10 N15 P8:R8 P10:R13 Q15 P14:Q14">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13228,7 +13241,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10 O13">
+  <conditionalFormatting sqref="O13 O10">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13257,7 +13270,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L13 L10">
+  <conditionalFormatting sqref="L10 L13">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13597,7 +13610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M13 M10 M15">
+  <conditionalFormatting sqref="M10 M13 M15">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13752,32 +13765,30 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:S18"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -13796,25 +13807,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -13829,13 +13842,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -13852,20 +13865,20 @@
         <v>1933</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>29</v>
@@ -13910,32 +13923,32 @@
         <v>1934</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K4" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L4" s="20">
         <v>0</v>
@@ -13968,14 +13981,14 @@
         <v>1935</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>0</v>
@@ -13993,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -14026,32 +14039,32 @@
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -14084,32 +14097,32 @@
         <v>1937</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -14142,14 +14155,14 @@
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>0</v>
@@ -14158,16 +14171,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -14200,32 +14213,32 @@
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -14794,14 +14807,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N4 N6 N9 P4:R4 P6:R9 R5 P3:Q3">
+  <conditionalFormatting sqref="N6 N4 N9 P4:R4 P6:R9 R5 P3:Q3">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14818,7 +14831,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O4 O9">
+  <conditionalFormatting sqref="O4 O6 O9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14830,7 +14843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L3 L7:L8">
+  <conditionalFormatting sqref="L3 L5 L7:L8">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14847,7 +14860,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4 L6 L9">
+  <conditionalFormatting sqref="L6 L4 L9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14886,7 +14899,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N3 N7">
+  <conditionalFormatting sqref="N7 N3">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15087,32 +15100,30 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10:S18"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -15131,25 +15142,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>402</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -15164,13 +15177,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -15367,10 +15380,10 @@
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="13" t="s">
@@ -15380,19 +15393,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K6" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L6" s="20" t="s">
         <v>0</v>
@@ -15425,32 +15438,32 @@
         <v>1937</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -15483,32 +15496,32 @@
         <v>1938</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -15541,32 +15554,32 @@
         <v>1939</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -16135,14 +16148,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0600-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N7 P6:R9">
+  <conditionalFormatting sqref="N7 N9 P6:R9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16159,7 +16172,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7">
+  <conditionalFormatting sqref="O7 O9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16188,7 +16201,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9">
+  <conditionalFormatting sqref="L9 L7">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16227,7 +16240,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N6">
+  <conditionalFormatting sqref="N6 N8">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16428,32 +16441,30 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="B2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" style="14" customWidth="1"/>
-    <col min="3" max="4" width="24.81640625" customWidth="1"/>
-    <col min="5" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="18" width="3.81640625" customWidth="1"/>
-    <col min="19" max="19" width="13.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="14" customWidth="1"/>
+    <col min="3" max="4" width="33.6328125" customWidth="1"/>
+    <col min="5" max="11" width="12.6328125" customWidth="1"/>
+    <col min="12" max="18" width="3.6328125" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="A1" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
@@ -16472,25 +16483,27 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="22"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="C2" s="12" t="s">
-        <v>35</v>
+        <v>401</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>36</v>
+        <v>403</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>2</v>
@@ -16505,13 +16518,13 @@
         <v>5</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>2</v>
@@ -16648,34 +16661,34 @@
         <v>1935</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L5" s="20">
         <v>0</v>
@@ -16708,34 +16721,34 @@
         <v>1936</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L6" s="20">
         <v>0</v>
@@ -16768,34 +16781,34 @@
         <v>1936</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L7" s="20">
         <v>0</v>
@@ -16828,34 +16841,34 @@
         <v>1937</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L8" s="20">
         <v>0</v>
@@ -16888,34 +16901,34 @@
         <v>1938</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L9" s="20">
         <v>0</v>
@@ -16948,34 +16961,34 @@
         <v>1939</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L10" s="20">
         <v>0</v>
@@ -17544,14 +17557,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="B2:K2" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
+  <mergeCells count="4">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6 N9 P5:R6 P8:R10">
+  <conditionalFormatting sqref="N9 N6 P5:R6 P8:R10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17568,7 +17581,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O6">
+  <conditionalFormatting sqref="O6 O9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17580,7 +17593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L5 L10">
+  <conditionalFormatting sqref="L5 L8 L10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17597,7 +17610,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L9">
+  <conditionalFormatting sqref="L9 L6">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17609,7 +17622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O5 O10">
+  <conditionalFormatting sqref="O5 O8 O10">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17636,7 +17649,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5 N8 N10">
+  <conditionalFormatting sqref="N8 N5 N10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17852,10 +17865,10 @@
         <v>6</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17866,7 +17879,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17877,7 +17890,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -17885,10 +17898,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
+++ b/Collections/Germany/#Germany#Third_Reich#Regular#[1933-1948]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Germany\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB38BD0-FE05-4A07-99CF-D66C99568395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE93A5FF-D50A-4696-B7B6-4DCCCEB92354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1₰" sheetId="12" r:id="rId1"/>
@@ -3408,9 +3408,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3434,10 +3438,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5399,7 +5399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5417,36 +5417,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -6582,7 +6582,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(N6))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7 O12 O14">
+  <conditionalFormatting sqref="O7 O9 O12 O14">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6640,7 +6640,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L8 L10 L13 L15">
+  <conditionalFormatting sqref="L8 L6 L10 L13 L15">
     <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6657,7 +6657,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7 L9 L12 L14">
+  <conditionalFormatting sqref="L9 L7 L12 L14">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -6669,7 +6669,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8 O6 O13 O15">
+  <conditionalFormatting sqref="O6 O8 O13 O15">
     <cfRule type="colorScale" priority="70">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -7115,36 +7115,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -8171,7 +8171,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7">
+  <conditionalFormatting sqref="O7 O9">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8183,7 +8183,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10">
+  <conditionalFormatting sqref="L6 L8 L10">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8200,7 +8200,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7">
+  <conditionalFormatting sqref="L7 L9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8212,7 +8212,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10 O8">
+  <conditionalFormatting sqref="O8 O10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8239,7 +8239,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N6 N10">
+  <conditionalFormatting sqref="N6 N8 N10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -8491,7 +8491,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
+      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -8505,36 +8505,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -9652,7 +9652,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
+  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P14:Q16 P12:R12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9669,7 +9669,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O9 O7 O14 O16">
+  <conditionalFormatting sqref="O7 O9 O14 O16">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9681,7 +9681,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10 L15 L12">
+  <conditionalFormatting sqref="L6 L8 L10 L15 L12">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9698,7 +9698,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7 L14 L16">
+  <conditionalFormatting sqref="L7 L9 L14 L16">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9710,7 +9710,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10 O8 O15 O12">
+  <conditionalFormatting sqref="O8 O10 O15 O12">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -9737,7 +9737,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N6 N10 N15 N12">
+  <conditionalFormatting sqref="N6 N8 N10 N15 N12">
     <cfRule type="colorScale" priority="76">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10261,7 +10261,7 @@
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10275,36 +10275,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -11476,7 +11476,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N7 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
+  <conditionalFormatting sqref="N7 N9 N14 N16 P7:R10 Q6 P16:Q16 P12:R12 P14:R15">
     <cfRule type="colorScale" priority="96">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11493,7 +11493,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9 O14 O16">
+  <conditionalFormatting sqref="O9 O7 O14 O16">
     <cfRule type="colorScale" priority="94">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11505,7 +11505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8 L6 L10 L15 L17">
+  <conditionalFormatting sqref="L6 L8 L10 L15 L17">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11522,7 +11522,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7 L14 L16">
+  <conditionalFormatting sqref="L7 L9 L14 L16">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11534,7 +11534,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O8 O10 O15 O17 O12">
+  <conditionalFormatting sqref="O8 O6 O10 O15 O17 O12">
     <cfRule type="colorScale" priority="92">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11561,7 +11561,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10 N8 N15 N12">
+  <conditionalFormatting sqref="N8 N10 N15 N12">
     <cfRule type="colorScale" priority="86">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11714,7 +11714,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M9 M14 M16">
+  <conditionalFormatting sqref="M14 M9 M16">
     <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -11748,7 +11748,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10 M8 M15 M12">
+  <conditionalFormatting sqref="M8 M10 M15 M12">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -12133,36 +12133,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -13224,7 +13224,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N13 N10 N15 P8:R8 P10:R13 Q15 P14:Q14">
+  <conditionalFormatting sqref="N10 N13 N15 P8:R8 P10:R13 Q15 P14:Q14">
     <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13241,7 +13241,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O13 O10">
+  <conditionalFormatting sqref="O10 O13">
     <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13270,7 +13270,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L10 L13">
+  <conditionalFormatting sqref="L13 L10">
     <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13610,7 +13610,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M10 M13 M15">
+  <conditionalFormatting sqref="M13 M10 M15">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -13779,36 +13779,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -14814,7 +14814,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N6 N4 N9 P4:R4 P6:R9 R5 P3:Q3">
+  <conditionalFormatting sqref="N4 N6 N9 P4:R4 P6:R9 R5 P3:Q3">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14831,7 +14831,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4 O6 O9">
+  <conditionalFormatting sqref="O6 O4 O9">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14843,7 +14843,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3 L5 L7:L8">
+  <conditionalFormatting sqref="L5 L3 L7:L8">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14860,7 +14860,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L6 L4 L9">
+  <conditionalFormatting sqref="L4 L6 L9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14899,7 +14899,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7 N3">
+  <conditionalFormatting sqref="N3 N7">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -15096,11 +15096,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="19" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:K2"/>
+      <selection pane="bottomRight" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -15114,36 +15114,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -16155,7 +16155,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N7 N9 P6:R9">
+  <conditionalFormatting sqref="N9 N7 P6:R9">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16172,7 +16172,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O7 O9">
+  <conditionalFormatting sqref="O9 O7">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16201,7 +16201,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L7">
+  <conditionalFormatting sqref="L7 L9">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16240,7 +16240,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6 N8">
+  <conditionalFormatting sqref="N8 N6">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -16455,36 +16455,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B1" s="21"/>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="28" t="s">
+      <c r="D1" s="34"/>
+      <c r="E1" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="23" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="27"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22" t="s">
         <v>400</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -17564,7 +17564,7 @@
     <mergeCell ref="E1:K1"/>
     <mergeCell ref="L1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="N9 N6 P5:R6 P8:R10">
+  <conditionalFormatting sqref="N6 N9 P5:R6 P8:R10">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17581,7 +17581,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O6 O9">
+  <conditionalFormatting sqref="O9 O6">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17593,7 +17593,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L5 L8 L10">
+  <conditionalFormatting sqref="L8 L5 L10">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17610,7 +17610,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L9 L6">
+  <conditionalFormatting sqref="L6 L9">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17622,7 +17622,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5 O8 O10">
+  <conditionalFormatting sqref="O8 O5 O10">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -17649,7 +17649,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N8 N5 N10">
+  <conditionalFormatting sqref="N5 N8 N10">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
